--- a/Example/角色表.xlsx
+++ b/Example/角色表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlyFly\WorkSpace\ExcelToCode\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ExcelToCode\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09D90D0-D61C-408B-B1DA-9750833476BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23121C-C646-4F1F-9CE1-1A682928CAB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="3420" windowWidth="19005" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="409">
   <si>
     <t>#Class</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1573,6 +1573,10 @@
   </si>
   <si>
     <t>Game.Config.PlayerModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0XFF</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1911,7 +1915,7 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2001,8 +2005,8 @@
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>1001</v>
+      <c r="B5" s="2" t="s">
+        <v>408</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>204</v>
@@ -3802,6 +3806,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>